--- a/Instances/Inst100_3.xlsx
+++ b/Instances/Inst100_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Desktop\Estudo\Projetos\UTT\genetic-algorithm-tsptw\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB0147-8876-4BB5-9076-F969E26B7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EA8A08-864C-45FA-BBE5-C8E5112E2C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Sommets</t>
+    <t>vertice</t>
   </si>
   <si>
-    <t>Co X</t>
+    <t>coord_x</t>
   </si>
   <si>
-    <t>Co Y</t>
+    <t>coord_y</t>
   </si>
   <si>
-    <t>ai</t>
+    <t>a</t>
   </si>
   <si>
-    <t>bi</t>
+    <t>b</t>
   </si>
   <si>
-    <t>pénalité</t>
-  </si>
-  <si>
-    <t>demande</t>
-  </si>
-  <si>
-    <t>capa</t>
+    <t>latenesse penalty</t>
   </si>
 </sst>
 </file>
@@ -419,18 +413,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:A101"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="5" width="11.5703125"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,14 +445,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -475,14 +465,8 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -501,11 +485,8 @@
       <c r="F3">
         <v>0.3</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -524,11 +505,8 @@
       <c r="F4">
         <v>0.3</v>
       </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -547,11 +525,8 @@
       <c r="F5">
         <v>0.3</v>
       </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -570,11 +545,8 @@
       <c r="F6">
         <v>0.3</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -593,11 +565,8 @@
       <c r="F7">
         <v>0.3</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -616,11 +585,8 @@
       <c r="F8">
         <v>0.3</v>
       </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -639,11 +605,8 @@
       <c r="F9">
         <v>0.3</v>
       </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -662,11 +625,8 @@
       <c r="F10">
         <v>0.3</v>
       </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -685,11 +645,8 @@
       <c r="F11">
         <v>0.3</v>
       </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -708,11 +665,8 @@
       <c r="F12">
         <v>0.3</v>
       </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -731,11 +685,8 @@
       <c r="F13">
         <v>0.3</v>
       </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -754,11 +705,8 @@
       <c r="F14">
         <v>0.3</v>
       </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -777,11 +725,8 @@
       <c r="F15">
         <v>0.3</v>
       </c>
-      <c r="G15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -800,11 +745,8 @@
       <c r="F16">
         <v>0.3</v>
       </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -823,11 +765,8 @@
       <c r="F17">
         <v>0.3</v>
       </c>
-      <c r="G17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -846,11 +785,8 @@
       <c r="F18">
         <v>0.3</v>
       </c>
-      <c r="G18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -869,11 +805,8 @@
       <c r="F19">
         <v>0.3</v>
       </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -892,11 +825,8 @@
       <c r="F20">
         <v>0.3</v>
       </c>
-      <c r="G20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -915,11 +845,8 @@
       <c r="F21">
         <v>0.3</v>
       </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -938,11 +865,8 @@
       <c r="F22">
         <v>0.3</v>
       </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -961,11 +885,8 @@
       <c r="F23">
         <v>0.3</v>
       </c>
-      <c r="G23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -984,11 +905,8 @@
       <c r="F24">
         <v>0.3</v>
       </c>
-      <c r="G24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1007,11 +925,8 @@
       <c r="F25">
         <v>0.3</v>
       </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1030,11 +945,8 @@
       <c r="F26">
         <v>0.3</v>
       </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1053,11 +965,8 @@
       <c r="F27">
         <v>0.3</v>
       </c>
-      <c r="G27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1076,11 +985,8 @@
       <c r="F28">
         <v>0.3</v>
       </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1099,11 +1005,8 @@
       <c r="F29">
         <v>0.3</v>
       </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1122,11 +1025,8 @@
       <c r="F30">
         <v>0.3</v>
       </c>
-      <c r="G30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1145,11 +1045,8 @@
       <c r="F31">
         <v>0.3</v>
       </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1168,11 +1065,8 @@
       <c r="F32">
         <v>0.3</v>
       </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1191,11 +1085,8 @@
       <c r="F33">
         <v>0.3</v>
       </c>
-      <c r="G33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1214,11 +1105,8 @@
       <c r="F34">
         <v>0.3</v>
       </c>
-      <c r="G34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1237,11 +1125,8 @@
       <c r="F35">
         <v>0.3</v>
       </c>
-      <c r="G35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1260,11 +1145,8 @@
       <c r="F36">
         <v>0.3</v>
       </c>
-      <c r="G36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1283,11 +1165,8 @@
       <c r="F37">
         <v>0.3</v>
       </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1306,11 +1185,8 @@
       <c r="F38">
         <v>0.3</v>
       </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1329,11 +1205,8 @@
       <c r="F39">
         <v>0.3</v>
       </c>
-      <c r="G39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1352,11 +1225,8 @@
       <c r="F40">
         <v>0.3</v>
       </c>
-      <c r="G40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1375,11 +1245,8 @@
       <c r="F41">
         <v>0.3</v>
       </c>
-      <c r="G41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1398,11 +1265,8 @@
       <c r="F42">
         <v>0.3</v>
       </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1421,11 +1285,8 @@
       <c r="F43">
         <v>0.3</v>
       </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1444,11 +1305,8 @@
       <c r="F44">
         <v>0.3</v>
       </c>
-      <c r="G44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1467,11 +1325,8 @@
       <c r="F45">
         <v>0.3</v>
       </c>
-      <c r="G45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1490,11 +1345,8 @@
       <c r="F46">
         <v>0.3</v>
       </c>
-      <c r="G46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1513,11 +1365,8 @@
       <c r="F47">
         <v>0.3</v>
       </c>
-      <c r="G47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1536,11 +1385,8 @@
       <c r="F48">
         <v>0.3</v>
       </c>
-      <c r="G48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1559,11 +1405,8 @@
       <c r="F49">
         <v>0.3</v>
       </c>
-      <c r="G49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1582,11 +1425,8 @@
       <c r="F50">
         <v>0.3</v>
       </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1605,11 +1445,8 @@
       <c r="F51">
         <v>0.3</v>
       </c>
-      <c r="G51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1628,11 +1465,8 @@
       <c r="F52">
         <v>0.3</v>
       </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1651,11 +1485,8 @@
       <c r="F53">
         <v>0.3</v>
       </c>
-      <c r="G53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1674,11 +1505,8 @@
       <c r="F54">
         <v>0.3</v>
       </c>
-      <c r="G54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1697,11 +1525,8 @@
       <c r="F55">
         <v>0.3</v>
       </c>
-      <c r="G55">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1720,11 +1545,8 @@
       <c r="F56">
         <v>0.3</v>
       </c>
-      <c r="G56">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1743,11 +1565,8 @@
       <c r="F57">
         <v>0.3</v>
       </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1766,11 +1585,8 @@
       <c r="F58">
         <v>0.3</v>
       </c>
-      <c r="G58">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1789,11 +1605,8 @@
       <c r="F59">
         <v>0.3</v>
       </c>
-      <c r="G59">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1812,11 +1625,8 @@
       <c r="F60">
         <v>0.3</v>
       </c>
-      <c r="G60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1835,11 +1645,8 @@
       <c r="F61">
         <v>0.3</v>
       </c>
-      <c r="G61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1858,11 +1665,8 @@
       <c r="F62">
         <v>0.3</v>
       </c>
-      <c r="G62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1881,11 +1685,8 @@
       <c r="F63">
         <v>0.3</v>
       </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1904,11 +1705,8 @@
       <c r="F64">
         <v>0.3</v>
       </c>
-      <c r="G64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1927,11 +1725,8 @@
       <c r="F65">
         <v>0.3</v>
       </c>
-      <c r="G65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1950,11 +1745,8 @@
       <c r="F66">
         <v>0.3</v>
       </c>
-      <c r="G66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1973,11 +1765,8 @@
       <c r="F67">
         <v>0.3</v>
       </c>
-      <c r="G67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1996,11 +1785,8 @@
       <c r="F68">
         <v>0.3</v>
       </c>
-      <c r="G68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2019,11 +1805,8 @@
       <c r="F69">
         <v>0.3</v>
       </c>
-      <c r="G69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2042,11 +1825,8 @@
       <c r="F70">
         <v>0.3</v>
       </c>
-      <c r="G70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2065,11 +1845,8 @@
       <c r="F71">
         <v>0.3</v>
       </c>
-      <c r="G71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2088,11 +1865,8 @@
       <c r="F72">
         <v>0.3</v>
       </c>
-      <c r="G72">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2111,11 +1885,8 @@
       <c r="F73">
         <v>0.3</v>
       </c>
-      <c r="G73">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2134,11 +1905,8 @@
       <c r="F74">
         <v>0.3</v>
       </c>
-      <c r="G74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2157,11 +1925,8 @@
       <c r="F75">
         <v>0.3</v>
       </c>
-      <c r="G75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2180,11 +1945,8 @@
       <c r="F76">
         <v>0.3</v>
       </c>
-      <c r="G76">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2203,11 +1965,8 @@
       <c r="F77">
         <v>0.3</v>
       </c>
-      <c r="G77">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2226,11 +1985,8 @@
       <c r="F78">
         <v>0.3</v>
       </c>
-      <c r="G78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2249,11 +2005,8 @@
       <c r="F79">
         <v>0.3</v>
       </c>
-      <c r="G79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2272,11 +2025,8 @@
       <c r="F80">
         <v>0.3</v>
       </c>
-      <c r="G80">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2295,11 +2045,8 @@
       <c r="F81">
         <v>0.3</v>
       </c>
-      <c r="G81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2318,11 +2065,8 @@
       <c r="F82">
         <v>0.3</v>
       </c>
-      <c r="G82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2341,11 +2085,8 @@
       <c r="F83">
         <v>0.3</v>
       </c>
-      <c r="G83">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2364,11 +2105,8 @@
       <c r="F84">
         <v>0.3</v>
       </c>
-      <c r="G84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2387,11 +2125,8 @@
       <c r="F85">
         <v>0.3</v>
       </c>
-      <c r="G85">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2410,11 +2145,8 @@
       <c r="F86">
         <v>0.3</v>
       </c>
-      <c r="G86">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2433,11 +2165,8 @@
       <c r="F87">
         <v>0.3</v>
       </c>
-      <c r="G87">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2456,11 +2185,8 @@
       <c r="F88">
         <v>0.3</v>
       </c>
-      <c r="G88">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2479,11 +2205,8 @@
       <c r="F89">
         <v>0.3</v>
       </c>
-      <c r="G89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2502,11 +2225,8 @@
       <c r="F90">
         <v>0.3</v>
       </c>
-      <c r="G90">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2525,11 +2245,8 @@
       <c r="F91">
         <v>0.3</v>
       </c>
-      <c r="G91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2548,11 +2265,8 @@
       <c r="F92">
         <v>0.3</v>
       </c>
-      <c r="G92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2571,11 +2285,8 @@
       <c r="F93">
         <v>0.3</v>
       </c>
-      <c r="G93">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2594,11 +2305,8 @@
       <c r="F94">
         <v>0.3</v>
       </c>
-      <c r="G94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2617,11 +2325,8 @@
       <c r="F95">
         <v>0.3</v>
       </c>
-      <c r="G95">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2640,11 +2345,8 @@
       <c r="F96">
         <v>0.3</v>
       </c>
-      <c r="G96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2663,11 +2365,8 @@
       <c r="F97">
         <v>0.3</v>
       </c>
-      <c r="G97">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2686,11 +2385,8 @@
       <c r="F98">
         <v>0.3</v>
       </c>
-      <c r="G98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2709,11 +2405,8 @@
       <c r="F99">
         <v>0.3</v>
       </c>
-      <c r="G99">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2732,11 +2425,8 @@
       <c r="F100">
         <v>0.3</v>
       </c>
-      <c r="G100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2754,9 +2444,6 @@
       </c>
       <c r="F101">
         <v>0.3</v>
-      </c>
-      <c r="G101">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
